--- a/biology/Zoologie/Dolomedes_briangreenei/Dolomedes_briangreenei.xlsx
+++ b/biology/Zoologie/Dolomedes_briangreenei/Dolomedes_briangreenei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes briangreenei est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes briangreenei est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12,48 mm et la femelle paratype 20,40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12,48 mm et la femelle paratype 20,40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Brian Greene[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Brian Greene.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
